--- a/data/menu/menu.xlsx
+++ b/data/menu/menu.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="appetizers" sheetId="1" r:id="rId1"/>
     <sheet name="main dishes" sheetId="3" r:id="rId2"/>
-    <sheet name="deserts" sheetId="2" r:id="rId3"/>
+    <sheet name="desserts" sheetId="2" r:id="rId3"/>
+    <sheet name="drinks" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>cs</t>
   </si>
@@ -30,123 +31,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>Kuřecí vývar, jarní cibulka, kuřecí maso, koriandr, pak choi</t>
-  </si>
-  <si>
-    <t>Domácí paštika s brusinkami, domácí chléb 1,5</t>
-  </si>
-  <si>
-    <t>Grilovaná klobása, cibulové chutney s chilli papričkami, hořčice, křen, chléb 1,10</t>
-  </si>
-  <si>
-    <t>Carpaccio z červené řepy s kozím sýrem 80g, balzamiková redukce, bageta 1,5,7,8,12</t>
-  </si>
-  <si>
-    <t>Denní polévka</t>
-  </si>
-  <si>
-    <t>60,-</t>
-  </si>
-  <si>
-    <t>95,-</t>
-  </si>
-  <si>
-    <t>105,-</t>
-  </si>
-  <si>
-    <t>75,-</t>
-  </si>
-  <si>
-    <t>170,-</t>
-  </si>
-  <si>
-    <t>Chicken broth, spring onion, chicken, coriander, pak choi</t>
-  </si>
-  <si>
-    <t>Homemade pâté with cranberries, homemade bread</t>
-  </si>
-  <si>
-    <t>Grilled sausage, onion chutney with chillies, mustard, horseradish, bread</t>
-  </si>
-  <si>
-    <t>Beetroot carpaccio with goat cheese 80g, balsamic reduction, baguette</t>
-  </si>
-  <si>
-    <t>Daily soup</t>
-  </si>
-  <si>
-    <t>Grilled chicken 1/4 with sauce of your choice</t>
-  </si>
-  <si>
-    <t>Grilled chicken 1/2 with sauce of your choice</t>
-  </si>
-  <si>
-    <t>Grilled whole chicken with two sauces of your choice</t>
-  </si>
-  <si>
-    <t>Burger with chopped chicken, BBQ sauce, mayonnaise, fries 1,3,6,7,11</t>
-  </si>
-  <si>
-    <t>Grilled chicken steak, grill vegetables, roasted baguette, mayonnaise 1,3,7</t>
-  </si>
-  <si>
-    <t>Beef goulash with Carlsbad dumplings, fresh onion with paprika</t>
-  </si>
-  <si>
-    <t>Burger with chicken steak, bacon and cabbage salad, fries 1,7,11</t>
-  </si>
-  <si>
-    <t>Beef stroganoff with jasmine rice</t>
-  </si>
-  <si>
-    <t>110,-</t>
-  </si>
-  <si>
-    <t>160,-</t>
-  </si>
-  <si>
-    <t>120,-</t>
-  </si>
-  <si>
-    <t>150,-</t>
-  </si>
-  <si>
-    <t>140,-</t>
-  </si>
-  <si>
-    <t>Homemade chocolate fondant</t>
-  </si>
-  <si>
-    <t>Hot raspberries</t>
-  </si>
-  <si>
-    <t>One scoop of ice cream, mint</t>
-  </si>
-  <si>
-    <t>90,-</t>
-  </si>
-  <si>
-    <t>80,-</t>
-  </si>
-  <si>
-    <t>33,-</t>
-  </si>
-  <si>
-    <t>Сезонный суп с микротравами</t>
-  </si>
-  <si>
-    <t>Звериный паштет,черника,грецкий орех,хлеб</t>
-  </si>
-  <si>
-    <t>Копченая утиная грутка, абрикосы, и котаге сыр</t>
-  </si>
-  <si>
-    <t>Крокета з козьего сыра, з салата и свеклы</t>
-  </si>
-  <si>
-    <t>Салат с моцареллой, а помидор черри, базелык песто</t>
-  </si>
-  <si>
     <t>Закуски</t>
   </si>
   <si>
@@ -156,81 +40,12 @@
     <t>Předkrmy</t>
   </si>
   <si>
-    <t>Grilované kuře 1/4 s omáčkou dle výběru</t>
-  </si>
-  <si>
-    <t>Grilované kuře 1/2 s omáčkou dle výběru</t>
-  </si>
-  <si>
-    <t>Grilované kuře celé se dvěma omáčkami dle výběru</t>
-  </si>
-  <si>
-    <t>Hamburger z trhaného kuřecího masa, BBQ omáčka, majonéza, a hranolky</t>
-  </si>
-  <si>
-    <t>Variace salátů s kuřecím masem, slanina, vejce, avokádo, parmesán, hořčičný dresing 3,7,10</t>
-  </si>
-  <si>
-    <t>Řecký salát, fetaki sýr, olivy, cibule bylinková zálivka 7</t>
-  </si>
-  <si>
-    <t>Pravý český smažák s brusinkovou majonézou, steakové hranolky, salátek 1,3,7</t>
-  </si>
-  <si>
-    <t>Vepřový řízek s domácím letním bramborovým salátem, grilovaný citrón 1,3,7,10</t>
-  </si>
-  <si>
-    <t>Zmrzlina</t>
-  </si>
-  <si>
-    <t>Horké maliny 7</t>
-  </si>
-  <si>
-    <t>Čokoládový fondant se zmrzlinou</t>
-  </si>
-  <si>
-    <t>Крем брюле</t>
-  </si>
-  <si>
-    <t>Чизкейк, ревень с клубникой,мята</t>
-  </si>
-  <si>
-    <t>Пирог с вишней,сливки, кофе</t>
-  </si>
-  <si>
     <t>Десерты</t>
   </si>
   <si>
-    <t>Deserts</t>
-  </si>
-  <si>
     <t>Dezerty</t>
   </si>
   <si>
-    <t>Говяжий гуляш с домашними кнедликами с беконом и луком</t>
-  </si>
-  <si>
-    <t>Отбивные с индейки с травами, картофильное пюре,лимон</t>
-  </si>
-  <si>
-    <t>Куриная грудка,с перцем, сливками, и макарони</t>
-  </si>
-  <si>
-    <t>Гамбургер з говядини, лук , картофельный чипсы</t>
-  </si>
-  <si>
-    <t>Грилованое свиное колено.вариация салатов.домашний хлеб</t>
-  </si>
-  <si>
-    <t>Утиная грудка, с крокетом, слива соус</t>
-  </si>
-  <si>
-    <t>Равиоли з сырем риккота, овощи</t>
-  </si>
-  <si>
-    <t>Стейк из говядины, соус лука шалот, жареный картофель, сливки лук</t>
-  </si>
-  <si>
     <t>Main dishes</t>
   </si>
   <si>
@@ -238,13 +53,193 @@
   </si>
   <si>
     <t>Hlavní jídla</t>
+  </si>
+  <si>
+    <t>Kulajda se smetanou a houbami</t>
+  </si>
+  <si>
+    <t>Creamy mushroom soup with dill and potatoes</t>
+  </si>
+  <si>
+    <t>Крем-суп с грибами, укропом и картофелем</t>
+  </si>
+  <si>
+    <t>Šneky s bylinkovým máslem</t>
+  </si>
+  <si>
+    <t>Snails with herb butter</t>
+  </si>
+  <si>
+    <t>Улитки с травяным маслом</t>
+  </si>
+  <si>
+    <t>Zeleninový salát se sýrem feta</t>
+  </si>
+  <si>
+    <t>Vegetable salad with feta cheese</t>
+  </si>
+  <si>
+    <t>Салат из овощей с фетой</t>
+  </si>
+  <si>
+    <t>Bruschetta s rajčaty, bazalkou a olivovým olejem</t>
+  </si>
+  <si>
+    <t>Bruschetta with tomatoes, basil, and olive oil</t>
+  </si>
+  <si>
+    <t>Брускетта с помидорами, базиликом и оливковым маслом</t>
+  </si>
+  <si>
+    <t>8,-</t>
+  </si>
+  <si>
+    <t>12,-</t>
+  </si>
+  <si>
+    <t>9,-</t>
+  </si>
+  <si>
+    <t>7,-</t>
+  </si>
+  <si>
+    <t>Vepřová panenka s bramborovým pyré a červeným zelím</t>
+  </si>
+  <si>
+    <t>Pork tenderloin with mashed potatoes and red cabbage</t>
+  </si>
+  <si>
+    <t>Свиной филе с картофельным пюре и красной капустой</t>
+  </si>
+  <si>
+    <t>Kuřecí řízek s bramborovou kaší a okurkovým salátem</t>
+  </si>
+  <si>
+    <t>Chicken schnitzel with mashed potatoes and cucumber salad</t>
+  </si>
+  <si>
+    <t>Куриный шницель с картофельным пюре и огуречным салатом</t>
+  </si>
+  <si>
+    <t>Losos na grilu s pečenými bramborami a špenátem</t>
+  </si>
+  <si>
+    <t>Grilled salmon with roasted potatoes and spinach</t>
+  </si>
+  <si>
+    <t>Гриль-лосось с жареным картофелем и шпинатом</t>
+  </si>
+  <si>
+    <t>Hovězí guláš s houskovým knedlíkem</t>
+  </si>
+  <si>
+    <t>Beef goulash with bread dumplings</t>
+  </si>
+  <si>
+    <t>Говяжий гуляш с хлебными клецками</t>
+  </si>
+  <si>
+    <t>15,-</t>
+  </si>
+  <si>
+    <t>18,-</t>
+  </si>
+  <si>
+    <t>14,-</t>
+  </si>
+  <si>
+    <t>Desserts</t>
+  </si>
+  <si>
+    <t>Štrůdl s jablky a skořicí</t>
+  </si>
+  <si>
+    <t>Apple strudel with cinnamon</t>
+  </si>
+  <si>
+    <t>Яблочный штрудель с корицей</t>
+  </si>
+  <si>
+    <t>Čokoládový dort s malinami</t>
+  </si>
+  <si>
+    <t>Chocolate cake with raspberries</t>
+  </si>
+  <si>
+    <t>Шоколадный торт с малиной</t>
+  </si>
+  <si>
+    <t>Tvarohové knedlíky s ovocem</t>
+  </si>
+  <si>
+    <t>Cottage cheese dumplings with fruit</t>
+  </si>
+  <si>
+    <t>Творожные клецки с фруктами</t>
+  </si>
+  <si>
+    <t>6,-</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>Nápoje</t>
+  </si>
+  <si>
+    <t>Pivo (0,5l)</t>
+  </si>
+  <si>
+    <t>Beer (0.5l)</t>
+  </si>
+  <si>
+    <t>Пиво (0,5л)</t>
+  </si>
+  <si>
+    <t>Víno (1 dcl)</t>
+  </si>
+  <si>
+    <t>Wine (1 dl)</t>
+  </si>
+  <si>
+    <t>Вино (1 дл)</t>
+  </si>
+  <si>
+    <t>Limonáda (0,3l)</t>
+  </si>
+  <si>
+    <t>Lemonade (0,3l)</t>
+  </si>
+  <si>
+    <t>Лимонад (0,3л)</t>
+  </si>
+  <si>
+    <t>Káva</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Кофе</t>
+  </si>
+  <si>
+    <t>3,-</t>
+  </si>
+  <si>
+    <t>5,-</t>
+  </si>
+  <si>
+    <t>2,-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,16 +248,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,13 +278,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,83 +641,69 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -689,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,125 +743,69 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -849,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -876,59 +845,160 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29.25" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>